--- a/bank statement generator/bank_statements/statement_129.xlsx
+++ b/bank statement generator/bank_statements/statement_129.xlsx
@@ -682,7 +682,7 @@
       </c>
       <c r="C2" s="8" t="inlineStr">
         <is>
-          <t>Engin</t>
+          <t>Hartmut</t>
         </is>
       </c>
       <c r="D2" s="8" t="n"/>
@@ -699,12 +699,12 @@
       <c r="A3" s="1" t="n"/>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>2267041356247526</t>
+          <t>2570314725427075</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
         <is>
-          <t>Peukert</t>
+          <t>Mohaupt</t>
         </is>
       </c>
       <c r="D3" s="8" t="n"/>
@@ -751,7 +751,7 @@
       <c r="C5" s="8" t="n"/>
       <c r="D5" s="8" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 28.03.2024</t>
+          <t>KONTOSTAND AM 29.04.2025</t>
         </is>
       </c>
       <c r="E5" s="17" t="n"/>
@@ -759,96 +759,112 @@
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="8" t="inlineStr">
         <is>
-          <t>30.03.</t>
+          <t>01.05.</t>
         </is>
       </c>
       <c r="C6" s="8" t="inlineStr">
         <is>
-          <t>31.03.</t>
+          <t>02.05.</t>
         </is>
       </c>
       <c r="D6" s="8" t="inlineStr">
         <is>
-          <t>BEITRAG Allianz SE K-99633816</t>
+          <t>PAYPAL FZLZYR</t>
         </is>
       </c>
       <c r="E6" s="17" t="inlineStr">
         <is>
-          <t>55,68-</t>
+          <t>91,25-</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="B7" s="8" t="inlineStr">
         <is>
-          <t>01.04.</t>
+          <t>02.05.</t>
         </is>
       </c>
       <c r="C7" s="8" t="inlineStr">
         <is>
-          <t>02.04.</t>
+          <t>03.05.</t>
         </is>
       </c>
       <c r="D7" s="8" t="inlineStr">
         <is>
-          <t>ABSCHLAG STROM Stadtwerke Rosenheim 92746608</t>
+          <t>PAYPAL PGPPWJ</t>
         </is>
       </c>
       <c r="E7" s="17" t="inlineStr">
         <is>
-          <t>83,55-</t>
+          <t>15,65-</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="B8" s="8" t="inlineStr">
         <is>
-          <t>02.04.</t>
+          <t>03.05.</t>
         </is>
       </c>
       <c r="C8" s="8" t="inlineStr">
         <is>
-          <t>03.04.</t>
+          <t>04.05.</t>
         </is>
       </c>
       <c r="D8" s="8" t="inlineStr">
         <is>
-          <t>PAYPAL CUKWPF</t>
+          <t>KARTENZ./03.05 REWE RO</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>34,85-</t>
+          <t>146,21-</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="B9" s="8" t="inlineStr">
         <is>
-          <t>03.04.</t>
+          <t>05.05.</t>
         </is>
       </c>
       <c r="C9" s="8" t="inlineStr">
         <is>
-          <t>04.04.</t>
+          <t>06.05.</t>
         </is>
       </c>
       <c r="D9" s="8" t="inlineStr">
         <is>
-          <t>AMAZON.DE MKTPLC EU SOPPCK</t>
+          <t>EBAY MKTPLC EU XSFESG</t>
         </is>
       </c>
       <c r="E9" s="17" t="inlineStr">
         <is>
-          <t>113,62-</t>
+          <t>78,67-</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="8" t="n"/>
-      <c r="C10" s="8" t="n"/>
-      <c r="D10" s="8" t="n"/>
-      <c r="E10" s="12" t="n"/>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>07.05.</t>
+        </is>
+      </c>
+      <c r="C10" s="8" t="inlineStr">
+        <is>
+          <t>08.05.</t>
+        </is>
+      </c>
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>BEITRAG Allianz SE K-57788630</t>
+        </is>
+      </c>
+      <c r="E10" s="17" t="inlineStr">
+        <is>
+          <t>52,72-</t>
+        </is>
+      </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="B11" s="8" t="n"/>
@@ -861,12 +877,12 @@
       <c r="C12" s="8" t="n"/>
       <c r="D12" s="9" t="inlineStr">
         <is>
-          <t>KONTOSTAND AM 05.04.2024</t>
+          <t>KONTOSTAND AM 12.05.2025</t>
         </is>
       </c>
       <c r="E12" s="17" t="inlineStr">
         <is>
-          <t>287,70-</t>
+          <t>384,50-</t>
         </is>
       </c>
     </row>
@@ -874,7 +890,7 @@
       <c r="B13" s="11" t="n"/>
       <c r="C13" s="11" t="inlineStr">
         <is>
-          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 14.04.2024</t>
+          <t>IHR NAECHSTER ABRECHNUNGSTERMIN 22.05.2025</t>
         </is>
       </c>
       <c r="D13" s="11" t="n"/>
